--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21360" windowHeight="8280"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>DESCRIBE</t>
   </si>
   <si>
+    <t>prefabName</t>
+  </si>
+  <si>
     <t>interactEffectID</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>预制体名称</t>
+  </si>
+  <si>
     <t>玩家与其的交互是哪一种</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
     <t>木屑</t>
   </si>
   <si>
+    <t>Sawdust</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -107,6 +116,9 @@
     <t>燃烧的木屑</t>
   </si>
   <si>
+    <t>BurningSawdust</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -116,37 +128,70 @@
     <t>陶瓷碎片</t>
   </si>
   <si>
+    <t>DeadVase</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>座钟</t>
   </si>
   <si>
+    <t>BigBell</t>
+  </si>
+  <si>
     <t>铁砧</t>
   </si>
   <si>
+    <t>Anvil</t>
+  </si>
+  <si>
     <t>充电站</t>
   </si>
   <si>
+    <t>Charger</t>
+  </si>
+  <si>
     <t>干枯藤蔓</t>
   </si>
   <si>
+    <t>Vine</t>
+  </si>
+  <si>
+    <t>900004</t>
+  </si>
+  <si>
     <t>储物柜</t>
   </si>
   <si>
+    <t>Locker</t>
+  </si>
+  <si>
     <t>书</t>
   </si>
   <si>
+    <t>Book</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>尸骨堆</t>
   </si>
   <si>
+    <t>SkeletonPile</t>
+  </si>
+  <si>
     <t>火焰</t>
   </si>
   <si>
-    <t>篮球框</t>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>篮球筐</t>
+  </si>
+  <si>
+    <t>Basket</t>
   </si>
 </sst>
 </file>
@@ -768,12 +813,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1093,394 +1147,457 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="17.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="24.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="7" max="7" width="23.0666666666667" customWidth="1"/>
+    <col min="4" max="4" width="7.01666666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.7666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="23.0666666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="67.5" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" s="1" customFormat="1" ht="67.5" spans="1:9">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="H4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
+    <row r="5" spans="1:9">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
         <v>220001</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1004</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4">
+        <v>900004</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
+    <row r="6" spans="1:9">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
         <v>220002</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
+        <v>220003</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4">
+        <v>220004</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4">
+        <v>900005</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="H8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
-        <v>220003</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="3" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
+        <v>220005</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4">
+        <v>900006</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4">
+        <v>220006</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4">
+        <v>900007</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6">
+        <v>10</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>220007</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="H11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
-        <v>220004</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1005</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>24</v>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>220008</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4">
+        <v>900003</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2">
-        <v>220005</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4">
+        <v>220009</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="4">
+        <v>900008</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
+        <v>220010</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>300</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
+        <v>220011</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1006</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2">
-        <v>220006</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1007</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="3">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2">
-        <v>220007</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1004</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2">
-        <v>220008</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1003</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2">
-        <v>220009</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1008</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2">
-        <v>220010</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1004</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2">
-        <v>220011</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="2">
+    <row r="16" spans="2:9">
+      <c r="B16" s="4">
         <v>220012</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3">
+        <v>900009</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003703F2-63E4-473D-B542-EE34275E6B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C01473-51B9-4F1C-B0BB-53839DA62769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="885" windowWidth="23685" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14085" yWindow="1275" windowWidth="12270" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -34,9 +34,6 @@
     <t>DESCRIBE</t>
   </si>
   <si>
-    <t>prefabName</t>
-  </si>
-  <si>
     <t>interactEffectID</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>预制体名称</t>
-  </si>
-  <si>
     <t>玩家与其的交互是哪一种</t>
   </si>
   <si>
@@ -151,42 +145,6 @@
     <t>篮球筐</t>
   </si>
   <si>
-    <t>SceneItem_Sawdust</t>
-  </si>
-  <si>
-    <t>SceneItem_BurningSawdust</t>
-  </si>
-  <si>
-    <t>SceneItem_DeadVase</t>
-  </si>
-  <si>
-    <t>SceneItem_BigBell</t>
-  </si>
-  <si>
-    <t>SceneItem_Anvil</t>
-  </si>
-  <si>
-    <t>SceneItem_Charger</t>
-  </si>
-  <si>
-    <t>SceneItem_Vine</t>
-  </si>
-  <si>
-    <t>SceneItem_Locker</t>
-  </si>
-  <si>
-    <t>SceneItem_Book</t>
-  </si>
-  <si>
-    <t>SceneItem_SkeletonPile</t>
-  </si>
-  <si>
-    <t>SceneItem_Fire</t>
-  </si>
-  <si>
-    <t>SceneItem_Basket</t>
-  </si>
-  <si>
     <t>Icon_SceneItem_Sawdust</t>
   </si>
   <si>
@@ -227,6 +185,45 @@
   </si>
   <si>
     <t>图标</t>
+  </si>
+  <si>
+    <t>图片渲染</t>
+  </si>
+  <si>
+    <t>Sprite_SceneItem_Sawdust</t>
+  </si>
+  <si>
+    <t>Sprite_SceneItem_BurningSawdust</t>
+  </si>
+  <si>
+    <t>Sprite_SceneItem_DeadVase</t>
+  </si>
+  <si>
+    <t>Sprite_SceneItem_BigBell</t>
+  </si>
+  <si>
+    <t>Sprite_SceneItem_Anvil</t>
+  </si>
+  <si>
+    <t>Sprite_SceneItem_Charger</t>
+  </si>
+  <si>
+    <t>Sprite_SceneItem_Vine</t>
+  </si>
+  <si>
+    <t>Sprite_SceneItem_Locker</t>
+  </si>
+  <si>
+    <t>Sprite_SceneItem_Book</t>
+  </si>
+  <si>
+    <t>Sprite_SceneItem_SkeletonPile</t>
+  </si>
+  <si>
+    <t>Sprite_SceneItem_Fire</t>
+  </si>
+  <si>
+    <t>Sprite_SceneItem_Basket</t>
   </si>
 </sst>
 </file>
@@ -563,25 +560,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="35" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="23" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="35" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -594,475 +591,472 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="90">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="90">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>220001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="4">
         <v>900004</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>25</v>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>220002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13">
+        <v>57</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>220003</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>25</v>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
+        <v>58</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>220004</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="4">
         <v>900005</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>26</v>
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13">
+        <v>59</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>220005</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="4">
         <v>900006</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>26</v>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13">
+        <v>60</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>220006</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="4">
         <v>900007</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="6">
         <v>10</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>26</v>
+      <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13">
+        <v>61</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>220007</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>25</v>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13">
+        <v>62</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>220008</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="4">
         <v>900003</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>26</v>
+      <c r="F12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13">
+        <v>63</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
         <v>220009</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="4">
         <v>900008</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>26</v>
+      <c r="F13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13">
+        <v>64</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
         <v>220010</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4">
         <v>1</v>
       </c>
+      <c r="G14" s="6">
+        <v>300</v>
+      </c>
       <c r="H14" s="6">
-        <v>300</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13">
+        <v>65</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>220011</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>26</v>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13">
+        <v>66</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="B16" s="4">
         <v>220012</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>54</v>
+      <c r="E16" s="3">
+        <v>900009</v>
       </c>
       <c r="F16" s="3">
-        <v>900009</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -1070,13 +1064,13 @@
       <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="3">
-        <v>0</v>
+      <c r="I16" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="L16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415415E3-1586-4D88-8399-A0E3300C4671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -43,9 +50,24 @@
     <t>durability</t>
   </si>
   <si>
+    <t>buffID</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>attack</t>
   </si>
   <si>
+    <t>IconName</t>
+  </si>
+  <si>
+    <t>SpriteName</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -58,6 +80,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -85,9 +110,21 @@
     <t>这里的攻击和耐久更像是一种可以被调用的数值</t>
   </si>
   <si>
+    <t>提供哪一种buff（不一定是交互后，比如靠近某个物体一定范围后等）</t>
+  </si>
+  <si>
+    <t>赋予的buff有多长时间</t>
+  </si>
+  <si>
     <t>注意，更详细的功能效果并未配进该表中</t>
   </si>
   <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>图片渲染</t>
+  </si>
+  <si>
     <t>木屑</t>
   </si>
   <si>
@@ -97,6 +134,15 @@
     <t>0</t>
   </si>
   <si>
+    <t>Icon_Item_SceneItem_Sawdust</t>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_Sawdust</t>
+  </si>
+  <si>
+    <t>P_Item_SceneItem</t>
+  </si>
+  <si>
     <t>燃烧的木屑</t>
   </si>
   <si>
@@ -106,149 +152,275 @@
     <t>14</t>
   </si>
   <si>
+    <t>Icon_Item_SceneItem_BurningSawdust</t>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_BurningSawdust</t>
+  </si>
+  <si>
     <t>陶瓷碎片</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>Icon_Item_SceneItem_DeadVase</t>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_DeadVase</t>
+  </si>
+  <si>
     <t>座钟</t>
   </si>
   <si>
+    <t>Icon_Item_SceneItem_BigBell</t>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_BigBell</t>
+  </si>
+  <si>
     <t>铁砧</t>
   </si>
   <si>
+    <t>Icon_Item_SceneItem_Anvil</t>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_Anvil</t>
+  </si>
+  <si>
     <t>充电站</t>
   </si>
   <si>
+    <t>Icon_Item_SceneItem_Charger</t>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_Charger</t>
+  </si>
+  <si>
     <t>干枯藤蔓</t>
   </si>
   <si>
     <t>900004</t>
   </si>
   <si>
+    <t>Icon_Item_SceneItem_Vine</t>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_Vine</t>
+  </si>
+  <si>
     <t>储物柜</t>
   </si>
   <si>
+    <t>Icon_Item_SceneItem_Locker</t>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_Locker</t>
+  </si>
+  <si>
     <t>书</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>Icon_Item_SceneItem_Book</t>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_Book</t>
+  </si>
+  <si>
     <t>尸骨堆</t>
   </si>
   <si>
+    <t>Icon_Item_SceneItem_SkeletonPile</t>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_SkeletonPile</t>
+  </si>
+  <si>
     <t>火焰</t>
   </si>
   <si>
+    <t>Icon_Item_SceneItem_Fire</t>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_Fire</t>
+  </si>
+  <si>
     <t>篮球筐</t>
   </si>
   <si>
-    <t>IconName</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
-    <t>图片渲染</t>
-  </si>
-  <si>
-    <t>SpriteName</t>
-  </si>
-  <si>
-    <t>PrefabName</t>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_Sawdust</t>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_BurningSawdust</t>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_DeadVase</t>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_BigBell</t>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_Anvil</t>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_Charger</t>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_Vine</t>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_Locker</t>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_Book</t>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_SkeletonPile</t>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_Fire</t>
-  </si>
-  <si>
     <t>Icon_Item_SceneItem_Basket</t>
   </si>
   <si>
-    <t>Sprite_Item_SceneItem_Sawdust</t>
-  </si>
-  <si>
-    <t>Sprite_Item_SceneItem_BurningSawdust</t>
-  </si>
-  <si>
-    <t>Sprite_Item_SceneItem_DeadVase</t>
-  </si>
-  <si>
-    <t>Sprite_Item_SceneItem_BigBell</t>
-  </si>
-  <si>
-    <t>Sprite_Item_SceneItem_Anvil</t>
-  </si>
-  <si>
-    <t>Sprite_Item_SceneItem_Charger</t>
-  </si>
-  <si>
-    <t>Sprite_Item_SceneItem_Vine</t>
-  </si>
-  <si>
-    <t>Sprite_Item_SceneItem_Locker</t>
-  </si>
-  <si>
-    <t>Sprite_Item_SceneItem_Book</t>
-  </si>
-  <si>
-    <t>Sprite_Item_SceneItem_SkeletonPile</t>
-  </si>
-  <si>
-    <t>Sprite_Item_SceneItem_Fire</t>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_Basket</t>
-  </si>
-  <si>
-    <t>P_Item_SceneItem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,12 +429,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -270,9 +628,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -287,30 +887,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -560,34 +1204,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.1416666666667" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.8583333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="23" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="35" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" customWidth="1"/>
-    <col min="11" max="11" width="31.28515625" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="7" max="9" width="23" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="35" customWidth="1"/>
+    <col min="12" max="12" width="32.1416666666667" customWidth="1"/>
+    <col min="13" max="13" width="31.2833333333333" customWidth="1"/>
+    <col min="20" max="20" width="15.1416666666667" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="30">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -606,129 +1250,153 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="90">
+    <row r="4" s="1" customFormat="1" ht="67.5" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>220001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -737,32 +1405,36 @@
         <v>900004</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>220002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -771,32 +1443,36 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>220003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -805,32 +1481,36 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>220004</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -839,32 +1519,36 @@
         <v>900005</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="2"/>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>220005</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -873,32 +1557,36 @@
         <v>900006</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>220006</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -907,66 +1595,74 @@
         <v>900007</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="5">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>63</v>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>220007</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="K11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>220008</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -975,32 +1671,36 @@
         <v>900003</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>220009</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>36</v>
+      <c r="C13" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -1009,66 +1709,74 @@
         <v>900008</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>220010</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
+      <c r="E14" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>67</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="6">
+        <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>220011</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -1077,31 +1785,35 @@
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="2:14">
       <c r="B16" s="3">
         <v>220012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -1115,22 +1827,27 @@
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>69</v>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2">
+        <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="21780" windowHeight="10410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,8 @@
     <t>描述</t>
   </si>
   <si>
-    <t>玩家与其的交互是哪一种</t>
+    <t>玩家与其的交互是哪一种
+也就是说，在这个表里添加东西的话，要去func_InteractEffect.xlsx表里查询或添加交互显示</t>
   </si>
   <si>
     <t>是否可被武器攻击所破坏</t>
@@ -420,7 +421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,12 +581,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,22 +852,22 @@
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,7 +1208,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21780" windowHeight="10410"/>
+    <workbookView windowWidth="25590" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -74,13 +74,13 @@
     <t>int</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>float</t>
   </si>
   <si>
     <t>##group</t>
@@ -126,9 +126,6 @@
     <t>图片渲染</t>
   </si>
   <si>
-    <t>木屑</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>P_Item_SceneItem</t>
   </si>
   <si>
-    <t>燃烧的木屑</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>Sprite_Item_SceneItem_BurningSawdust</t>
   </si>
   <si>
-    <t>陶瓷碎片</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -171,36 +162,24 @@
     <t>Sprite_Item_SceneItem_DeadVase</t>
   </si>
   <si>
-    <t>座钟</t>
-  </si>
-  <si>
     <t>Icon_Item_SceneItem_BigBell</t>
   </si>
   <si>
     <t>Sprite_Item_SceneItem_BigBell</t>
   </si>
   <si>
-    <t>铁砧</t>
-  </si>
-  <si>
     <t>Icon_Item_SceneItem_Anvil</t>
   </si>
   <si>
     <t>Sprite_Item_SceneItem_Anvil</t>
   </si>
   <si>
-    <t>充电站</t>
-  </si>
-  <si>
     <t>Icon_Item_SceneItem_Charger</t>
   </si>
   <si>
     <t>Sprite_Item_SceneItem_Charger</t>
   </si>
   <si>
-    <t>干枯藤蔓</t>
-  </si>
-  <si>
     <t>900004</t>
   </si>
   <si>
@@ -210,18 +189,12 @@
     <t>Sprite_Item_SceneItem_Vine</t>
   </si>
   <si>
-    <t>储物柜</t>
-  </si>
-  <si>
     <t>Icon_Item_SceneItem_Locker</t>
   </si>
   <si>
     <t>Sprite_Item_SceneItem_Locker</t>
   </si>
   <si>
-    <t>书</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -231,25 +204,16 @@
     <t>Sprite_Item_SceneItem_Book</t>
   </si>
   <si>
-    <t>尸骨堆</t>
-  </si>
-  <si>
     <t>Icon_Item_SceneItem_SkeletonPile</t>
   </si>
   <si>
     <t>Sprite_Item_SceneItem_SkeletonPile</t>
   </si>
   <si>
-    <t>火焰</t>
-  </si>
-  <si>
     <t>Icon_Item_SceneItem_Fire</t>
   </si>
   <si>
     <t>Sprite_Item_SceneItem_Fire</t>
-  </si>
-  <si>
-    <t>篮球筐</t>
   </si>
   <si>
     <t>Icon_Item_SceneItem_Basket</t>
@@ -430,157 +394,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +711,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,16 +735,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -789,70 +753,70 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,7 +846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1208,25 +1172,25 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="17.1416666666667" customWidth="1"/>
+    <col min="3" max="3" width="17.1454545454545" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="23.8583333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.8545454545455" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="9" width="23" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2"/>
     <col min="11" max="11" width="35" customWidth="1"/>
-    <col min="12" max="12" width="32.1416666666667" customWidth="1"/>
-    <col min="13" max="13" width="31.2833333333333" customWidth="1"/>
-    <col min="20" max="20" width="15.1416666666667" customWidth="1"/>
+    <col min="12" max="12" width="32.1454545454545" customWidth="1"/>
+    <col min="13" max="13" width="31.2818181818182" customWidth="1"/>
+    <col min="20" max="20" width="15.1454545454545" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="28" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1275,16 +1239,16 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>14</v>
@@ -1293,19 +1257,19 @@
         <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:13">
@@ -1313,24 +1277,14 @@
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1347,7 +1301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="67.5" spans="1:12">
+    <row r="4" s="1" customFormat="1" ht="70" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1390,36 +1344,36 @@
       <c r="B5" s="3">
         <v>220001</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
+      <c r="C5" s="4">
+        <v>702001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>802001</v>
       </c>
       <c r="E5" s="3">
         <v>900004</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" t="s">
         <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
       </c>
       <c r="N5" s="2"/>
     </row>
@@ -1428,36 +1382,36 @@
       <c r="B6" s="3">
         <v>220002</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
+      <c r="C6" s="4">
+        <v>702002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>802002</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" s="2"/>
     </row>
@@ -1466,36 +1420,36 @@
       <c r="B7" s="3">
         <v>220003</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
+      <c r="C7" s="4">
+        <v>702003</v>
+      </c>
+      <c r="D7" s="4">
+        <v>802003</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -1504,36 +1458,36 @@
       <c r="B8" s="3">
         <v>220004</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
+      <c r="C8" s="4">
+        <v>702004</v>
+      </c>
+      <c r="D8" s="4">
+        <v>802004</v>
       </c>
       <c r="E8" s="3">
         <v>900005</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N8" s="2"/>
     </row>
@@ -1542,36 +1496,36 @@
       <c r="B9" s="3">
         <v>220005</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="C9" s="4">
+        <v>702005</v>
+      </c>
+      <c r="D9" s="4">
+        <v>802005</v>
       </c>
       <c r="E9" s="3">
         <v>900006</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9" s="2"/>
     </row>
@@ -1580,17 +1534,17 @@
       <c r="B10" s="3">
         <v>220006</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="C10" s="4">
+        <v>702006</v>
+      </c>
+      <c r="D10" s="4">
+        <v>802006</v>
       </c>
       <c r="E10" s="3">
         <v>900007</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="3">
         <v>10</v>
@@ -1600,16 +1554,16 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10" s="2"/>
     </row>
@@ -1618,36 +1572,36 @@
       <c r="B11" s="3">
         <v>220007</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
+      <c r="C11" s="4">
+        <v>702007</v>
+      </c>
+      <c r="D11" s="4">
+        <v>802007</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N11" s="2"/>
     </row>
@@ -1656,36 +1610,36 @@
       <c r="B12" s="3">
         <v>220008</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="C12" s="4">
+        <v>702008</v>
+      </c>
+      <c r="D12" s="4">
+        <v>802008</v>
       </c>
       <c r="E12" s="3">
         <v>900003</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N12" s="2"/>
     </row>
@@ -1694,36 +1648,36 @@
       <c r="B13" s="3">
         <v>220009</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
+      <c r="C13" s="4">
+        <v>702009</v>
+      </c>
+      <c r="D13" s="4">
+        <v>802009</v>
       </c>
       <c r="E13" s="3">
         <v>900008</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N13" s="2"/>
     </row>
@@ -1732,14 +1686,14 @@
       <c r="B14" s="3">
         <v>220010</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="C14" s="4">
+        <v>702010</v>
+      </c>
+      <c r="D14" s="4">
+        <v>802010</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1755,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N14" s="2"/>
     </row>
@@ -1770,36 +1724,36 @@
       <c r="B15" s="3">
         <v>220011</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="C15" s="4">
+        <v>702011</v>
+      </c>
+      <c r="D15" s="4">
+        <v>802011</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N15" s="2"/>
     </row>
@@ -1807,11 +1761,11 @@
       <c r="B16" s="3">
         <v>220012</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
+      <c r="C16" s="4">
+        <v>702012</v>
+      </c>
+      <c r="D16" s="4">
+        <v>802012</v>
       </c>
       <c r="E16" s="2">
         <v>900009</v>
@@ -1830,13 +1784,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N16" s="2"/>
     </row>

--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="11200"/>
+    <workbookView windowWidth="21765" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -126,6 +126,9 @@
     <t>图片渲染</t>
   </si>
   <si>
+    <t>木屑</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
     <t>P_Item_SceneItem</t>
   </si>
   <si>
+    <t>燃烧的木屑</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -153,6 +159,9 @@
     <t>Sprite_Item_SceneItem_BurningSawdust</t>
   </si>
   <si>
+    <t>陶瓷碎片</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -162,24 +171,36 @@
     <t>Sprite_Item_SceneItem_DeadVase</t>
   </si>
   <si>
+    <t>座钟</t>
+  </si>
+  <si>
     <t>Icon_Item_SceneItem_BigBell</t>
   </si>
   <si>
     <t>Sprite_Item_SceneItem_BigBell</t>
   </si>
   <si>
+    <t>铁砧</t>
+  </si>
+  <si>
     <t>Icon_Item_SceneItem_Anvil</t>
   </si>
   <si>
     <t>Sprite_Item_SceneItem_Anvil</t>
   </si>
   <si>
+    <t>充电站</t>
+  </si>
+  <si>
     <t>Icon_Item_SceneItem_Charger</t>
   </si>
   <si>
     <t>Sprite_Item_SceneItem_Charger</t>
   </si>
   <si>
+    <t>干枯藤蔓</t>
+  </si>
+  <si>
     <t>900004</t>
   </si>
   <si>
@@ -189,12 +210,18 @@
     <t>Sprite_Item_SceneItem_Vine</t>
   </si>
   <si>
+    <t>储物柜</t>
+  </si>
+  <si>
     <t>Icon_Item_SceneItem_Locker</t>
   </si>
   <si>
     <t>Sprite_Item_SceneItem_Locker</t>
   </si>
   <si>
+    <t>书</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -204,16 +231,25 @@
     <t>Sprite_Item_SceneItem_Book</t>
   </si>
   <si>
+    <t>尸骨堆</t>
+  </si>
+  <si>
     <t>Icon_Item_SceneItem_SkeletonPile</t>
   </si>
   <si>
     <t>Sprite_Item_SceneItem_SkeletonPile</t>
   </si>
   <si>
+    <t>火焰</t>
+  </si>
+  <si>
     <t>Icon_Item_SceneItem_Fire</t>
   </si>
   <si>
     <t>Sprite_Item_SceneItem_Fire</t>
+  </si>
+  <si>
+    <t>篮球筐</t>
   </si>
   <si>
     <t>Icon_Item_SceneItem_Basket</t>
@@ -1169,28 +1205,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="17.1454545454545" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="23.8545454545455" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="9" width="23" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="35" customWidth="1"/>
-    <col min="12" max="12" width="32.1454545454545" customWidth="1"/>
-    <col min="13" max="13" width="31.2818181818182" customWidth="1"/>
-    <col min="20" max="20" width="15.1454545454545" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="3" max="3" width="17.1416666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.575" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="23.8583333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="10" width="23" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="35" customWidth="1"/>
+    <col min="13" max="13" width="32.1416666666667" customWidth="1"/>
+    <col min="14" max="14" width="31.2833333333333" customWidth="1"/>
+    <col min="21" max="21" width="15.1416666666667" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1200,38 +1237,39 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1241,29 +1279,27 @@
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
@@ -1271,8 +1307,11 @@
       <c r="M2" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
+    <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1280,14 +1319,12 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1337,11 @@
       <c r="M3" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="70" spans="1:12">
+    <row r="4" s="1" customFormat="1" ht="67.5" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1311,35 +1351,36 @@
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>220001</v>
@@ -1347,37 +1388,40 @@
       <c r="C5" s="4">
         <v>702001</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4">
         <v>802001</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>900004</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" ht="27" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>220002</v>
@@ -1385,37 +1429,40 @@
       <c r="C6" s="4">
         <v>702002</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4">
         <v>802002</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
+      <c r="F6" s="3">
+        <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" ht="27" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>220003</v>
@@ -1423,37 +1470,40 @@
       <c r="C7" s="4">
         <v>702003</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4">
         <v>802003</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
+      <c r="F7" s="3">
+        <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" t="s">
         <v>37</v>
       </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>220004</v>
@@ -1461,37 +1511,40 @@
       <c r="C8" s="4">
         <v>702004</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="4">
         <v>802004</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900005</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>220005</v>
@@ -1499,37 +1552,40 @@
       <c r="C9" s="4">
         <v>702005</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4">
         <v>802005</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>900006</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>220006</v>
@@ -1537,37 +1593,40 @@
       <c r="C10" s="4">
         <v>702006</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="4">
         <v>802006</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900007</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="3">
         <v>10</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="2"/>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" ht="27" spans="1:15">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>220007</v>
@@ -1575,37 +1634,40 @@
       <c r="C11" s="4">
         <v>702007</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4">
         <v>802007</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>32</v>
+      <c r="F11" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="2"/>
+      <c r="H11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>220008</v>
@@ -1613,37 +1675,40 @@
       <c r="C12" s="4">
         <v>702008</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4">
         <v>802008</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900003</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>220009</v>
@@ -1651,37 +1716,40 @@
       <c r="C13" s="4">
         <v>702009</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="4">
         <v>802009</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>900008</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>220010</v>
@@ -1689,37 +1757,40 @@
       <c r="C14" s="4">
         <v>702010</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="4">
         <v>802010</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" s="2"/>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>220011</v>
@@ -1727,72 +1798,78 @@
       <c r="C15" s="4">
         <v>702011</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="4">
         <v>802011</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>33</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:15">
       <c r="B16" s="3">
         <v>220012</v>
       </c>
       <c r="C16" s="4">
         <v>702012</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="4">
         <v>802012</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>900009</v>
       </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" s="2"/>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21765" windowHeight="9780"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1315,16 +1315,28 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1421,7 +1433,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" ht="27" spans="1:15">
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>220002</v>
@@ -1462,7 +1474,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" ht="27" spans="1:15">
+    <row r="7" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>220003</v>
@@ -1626,7 +1638,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" ht="27" spans="1:15">
+    <row r="11" spans="1:15">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>220007</v>

--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3219E7DB-B5DD-47BB-B448-A02028B7DB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="330" yWindow="585" windowWidth="28320" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -53,9 +46,6 @@
     <t>buffID</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>attack</t>
   </si>
   <si>
@@ -256,366 +246,33 @@
   </si>
   <si>
     <t>Sprite_Item_SceneItem_Basket</t>
+  </si>
+  <si>
+    <t>buffTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -623,251 +280,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -895,61 +310,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1199,35 +570,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.1416666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.575" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="23.8583333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="10" width="23" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="2"/>
     <col min="12" max="12" width="35" customWidth="1"/>
-    <col min="13" max="13" width="32.1416666666667" customWidth="1"/>
-    <col min="14" max="14" width="31.2833333333333" customWidth="1"/>
-    <col min="21" max="21" width="15.1416666666667" customWidth="1"/>
+    <col min="13" max="13" width="44.7109375" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:14">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1254,142 +627,142 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="137.25" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="67.5" spans="1:13">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1401,7 +774,7 @@
         <v>702001</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4">
         <v>802001</v>
@@ -1410,26 +783,26 @@
         <v>900004</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" t="s">
         <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
       </c>
       <c r="O5" s="2"/>
     </row>
@@ -1442,7 +815,7 @@
         <v>702002</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4">
         <v>802002</v>
@@ -1451,26 +824,26 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O6" s="2"/>
     </row>
@@ -1483,7 +856,7 @@
         <v>702003</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="4">
         <v>802003</v>
@@ -1492,26 +865,26 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -1524,7 +897,7 @@
         <v>702004</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4">
         <v>802004</v>
@@ -1533,26 +906,26 @@
         <v>900005</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O8" s="2"/>
     </row>
@@ -1565,7 +938,7 @@
         <v>702005</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="4">
         <v>802005</v>
@@ -1574,26 +947,26 @@
         <v>900006</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9" s="2"/>
     </row>
@@ -1606,7 +979,7 @@
         <v>702006</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="4">
         <v>802006</v>
@@ -1615,7 +988,7 @@
         <v>900007</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="3">
         <v>10</v>
@@ -1625,16 +998,16 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -1647,35 +1020,35 @@
         <v>702007</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4">
         <v>802007</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O11" s="2"/>
     </row>
@@ -1688,7 +1061,7 @@
         <v>702008</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="4">
         <v>802008</v>
@@ -1697,26 +1070,26 @@
         <v>900003</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="2"/>
     </row>
@@ -1729,7 +1102,7 @@
         <v>702009</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="4">
         <v>802009</v>
@@ -1738,26 +1111,26 @@
         <v>900008</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="N13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="2"/>
     </row>
@@ -1770,13 +1143,13 @@
         <v>702010</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="4">
         <v>802010</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -1792,13 +1165,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="N14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -1811,7 +1184,7 @@
         <v>702011</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="4">
         <v>802011</v>
@@ -1820,30 +1193,30 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="1:15">
       <c r="B16" s="3">
         <v>220012</v>
       </c>
@@ -1851,7 +1224,7 @@
         <v>702012</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="4">
         <v>802012</v>
@@ -1873,19 +1246,18 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="N16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3219E7DB-B5DD-47BB-B448-A02028B7DB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="585" windowWidth="28320" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -46,6 +53,9 @@
     <t>buffID</t>
   </si>
   <si>
+    <t>buffTime</t>
+  </si>
+  <si>
     <t>attack</t>
   </si>
   <si>
@@ -246,33 +256,372 @@
   </si>
   <si>
     <t>Sprite_Item_SceneItem_Basket</t>
-  </si>
-  <si>
-    <t>buffTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -280,17 +629,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -300,27 +894,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -570,694 +1223,695 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.1416666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.1416666666667" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2"/>
+    <col min="6" max="6" width="18" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.1416666666667" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.2833333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.7083333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.28333333333333" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9" style="3"/>
     <col min="12" max="12" width="35" customWidth="1"/>
-    <col min="13" max="13" width="44.7109375" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="44.7083333333333" customWidth="1"/>
+    <col min="14" max="14" width="31.2833333333333" customWidth="1"/>
+    <col min="21" max="21" width="15.1416666666667" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="30">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:14">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:14">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>16</v>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:14">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>18</v>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="137.25" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" ht="137.25" customHeight="1" spans="1:13">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
         <v>220001</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>702001</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5">
         <v>802001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>900004</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="6" t="s">
-        <v>33</v>
+      <c r="J5" s="4"/>
+      <c r="K5" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M5" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="N5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
         <v>220002</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>702002</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5">
+        <v>802002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4">
-        <v>802002</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
         <v>220003</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>702003</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5">
         <v>802003</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="6" t="s">
-        <v>38</v>
+      <c r="J7" s="4"/>
+      <c r="K7" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="M7" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="N7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
+    <row r="8" s="2" customFormat="1" spans="1:15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6">
         <v>220004</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>702004</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="7">
         <v>802004</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>900005</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="G8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="6">
         <v>0</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="2"/>
+      <c r="M8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3">
+    <row r="9" s="2" customFormat="1" spans="1:15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6">
         <v>220005</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>702005</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7">
         <v>802005</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>900006</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="6">
         <v>0</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="2"/>
+      <c r="M9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3">
+    <row r="10" s="2" customFormat="1" spans="1:15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6">
         <v>220006</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>702006</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="7">
         <v>802006</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>900007</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="6">
         <v>10</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>0</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="2"/>
+      <c r="M10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
         <v>220007</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>702007</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="5">
         <v>802007</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="F11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="6" t="s">
-        <v>33</v>
+      <c r="J11" s="4"/>
+      <c r="K11" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="L11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
+        <v>220008</v>
+      </c>
+      <c r="C12" s="7">
+        <v>702008</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="7">
+        <v>802008</v>
+      </c>
+      <c r="F12" s="6">
+        <v>900003</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
+        <v>220009</v>
+      </c>
+      <c r="C13" s="7">
+        <v>702009</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="7">
+        <v>802009</v>
+      </c>
+      <c r="F13" s="6">
+        <v>900008</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
+        <v>220010</v>
+      </c>
+      <c r="C14" s="7">
+        <v>702010</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="7">
+        <v>802010</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3">
-        <v>220008</v>
-      </c>
-      <c r="C12" s="4">
-        <v>702008</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="4">
-        <v>802008</v>
-      </c>
-      <c r="F12" s="3">
-        <v>900003</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>300</v>
+      </c>
+      <c r="I14" s="6">
         <v>0</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3">
-        <v>220009</v>
-      </c>
-      <c r="C13" s="4">
-        <v>702009</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="4">
-        <v>802009</v>
-      </c>
-      <c r="F13" s="3">
-        <v>900008</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="J14" s="6"/>
+      <c r="K14" s="13">
         <v>0</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3">
-        <v>220010</v>
-      </c>
-      <c r="C14" s="4">
-        <v>702010</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="4">
-        <v>802010</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>300</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" s="2"/>
+      <c r="M14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
         <v>220011</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>702011</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="5">
         <v>802011</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="G15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="6" t="s">
-        <v>39</v>
+      <c r="J15" s="4"/>
+      <c r="K15" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="L15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="M15" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="N15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="3">
+    <row r="16" s="2" customFormat="1" spans="2:15">
+      <c r="B16" s="6">
         <v>220012</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <v>702012</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="7">
         <v>802012</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="10">
         <v>900009</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="10">
         <v>0</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="6">
         <v>0</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2">
+      <c r="J16" s="6"/>
+      <c r="K16" s="10">
         <v>0</v>
       </c>
-      <c r="L16" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="2"/>
+      <c r="M16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5940A4-0F43-4CB0-99B6-1DACCD0BB1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t>##var</t>
   </si>
@@ -141,9 +134,6 @@
     <t>Sprite_Item_SceneItem_Sawdust</t>
   </si>
   <si>
-    <t>P_Item_SceneItem</t>
-  </si>
-  <si>
     <t>燃烧的木屑</t>
   </si>
   <si>
@@ -256,172 +246,58 @@
   </si>
   <si>
     <t>Sprite_Item_SceneItem_Basket</t>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_Sawdust</t>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_BurningSawdust</t>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_DeadVase</t>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_BigBell</t>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_Anvil</t>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_Charger</t>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_Vine</t>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_Locker</t>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_Book</t>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_SkeletonPile</t>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_Fire</t>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_Basket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,194 +310,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -629,251 +319,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -919,61 +367,17 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1223,37 +627,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.1416666666667" customWidth="1"/>
-    <col min="4" max="4" width="13.1416666666667" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="18" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.1416666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.2833333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.7083333333333" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.28333333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="9" style="3"/>
     <col min="12" max="12" width="35" customWidth="1"/>
-    <col min="13" max="13" width="44.7083333333333" customWidth="1"/>
-    <col min="14" max="14" width="31.2833333333333" customWidth="1"/>
-    <col min="21" max="21" width="15.1416666666667" customWidth="1"/>
+    <col min="13" max="13" width="44.7109375" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="25" max="25" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:14">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="30">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" spans="1:29" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1337,7 +742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+    <row r="3" spans="1:29" s="1" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1379,7 +784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="137.25" customHeight="1" spans="1:13">
+    <row r="4" spans="1:29" s="1" customFormat="1" ht="137.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:29">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>220001</v>
@@ -1455,11 +860,12 @@
         <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>220002</v>
@@ -1468,7 +874,7 @@
         <v>702002</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5">
         <v>802002</v>
@@ -1480,27 +886,28 @@
         <v>34</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>220003</v>
@@ -1509,7 +916,7 @@
         <v>702003</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5">
         <v>802003</v>
@@ -1521,27 +928,28 @@
         <v>33</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="O7" s="3"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:15">
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:29" s="2" customFormat="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>220004</v>
@@ -1550,7 +958,7 @@
         <v>702004</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="7">
         <v>802004</v>
@@ -1572,17 +980,20 @@
         <v>34</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="N8" s="2" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="O8" s="10"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:15">
+      <c r="Y8" s="10"/>
+      <c r="AA8"/>
+      <c r="AC8"/>
+    </row>
+    <row r="9" spans="1:29" s="2" customFormat="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>220005</v>
@@ -1591,7 +1002,7 @@
         <v>702005</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="7">
         <v>802005</v>
@@ -1613,17 +1024,20 @@
         <v>34</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="N9" s="2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="O9" s="10"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:15">
+      <c r="Y9" s="10"/>
+      <c r="AA9"/>
+      <c r="AC9"/>
+    </row>
+    <row r="10" spans="1:29" s="2" customFormat="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6">
         <v>220006</v>
@@ -1632,7 +1046,7 @@
         <v>702006</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="7">
         <v>802006</v>
@@ -1654,17 +1068,20 @@
         <v>34</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="N10" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="Y10" s="10"/>
+      <c r="AA10"/>
+      <c r="AC10"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>220007</v>
@@ -1673,19 +1090,19 @@
         <v>702007</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="5">
         <v>802007</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -1695,17 +1112,18 @@
         <v>34</v>
       </c>
       <c r="L11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:15">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" s="2" customFormat="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6">
         <v>220008</v>
@@ -1714,7 +1132,7 @@
         <v>702008</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="7">
         <v>802008</v>
@@ -1736,17 +1154,20 @@
         <v>34</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="N12" s="2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="O12" s="10"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:15">
+      <c r="Y12" s="10"/>
+      <c r="AA12"/>
+      <c r="AC12"/>
+    </row>
+    <row r="13" spans="1:29" s="2" customFormat="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>220009</v>
@@ -1755,7 +1176,7 @@
         <v>702009</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="7">
         <v>802009</v>
@@ -1767,7 +1188,7 @@
         <v>34</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1777,17 +1198,20 @@
         <v>34</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="N13" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="O13" s="10"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:15">
+      <c r="Y13" s="10"/>
+      <c r="AA13"/>
+      <c r="AC13"/>
+    </row>
+    <row r="14" spans="1:29" s="2" customFormat="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>220010</v>
@@ -1796,13 +1220,13 @@
         <v>702010</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="7">
         <v>802010</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
@@ -1818,17 +1242,20 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Y14" s="10"/>
+      <c r="AA14"/>
+      <c r="AC14"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>220011</v>
@@ -1837,7 +1264,7 @@
         <v>702011</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="5">
         <v>802011</v>
@@ -1849,27 +1276,28 @@
         <v>34</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="O15" s="3"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="2:15">
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:29" s="2" customFormat="1">
       <c r="B16" s="6">
         <v>220012</v>
       </c>
@@ -1877,7 +1305,7 @@
         <v>702012</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="7">
         <v>802012</v>
@@ -1899,19 +1327,21 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="N16" s="2" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="O16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="AA16"/>
+      <c r="AC16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5940A4-0F43-4CB0-99B6-1DACCD0BB1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="16935" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>##var</t>
   </si>
@@ -134,6 +141,9 @@
     <t>Sprite_Item_SceneItem_Sawdust</t>
   </si>
   <si>
+    <t>P_Item_SceneItem_Sawdust</t>
+  </si>
+  <si>
     <t>燃烧的木屑</t>
   </si>
   <si>
@@ -149,6 +159,9 @@
     <t>Sprite_Item_SceneItem_BurningSawdust</t>
   </si>
   <si>
+    <t>P_Item_SceneItem_BurningSawdust</t>
+  </si>
+  <si>
     <t>陶瓷碎片</t>
   </si>
   <si>
@@ -161,6 +174,9 @@
     <t>Sprite_Item_SceneItem_DeadVase</t>
   </si>
   <si>
+    <t>P_Item_SceneItem_DeadVase</t>
+  </si>
+  <si>
     <t>座钟</t>
   </si>
   <si>
@@ -170,6 +186,9 @@
     <t>Sprite_Item_SceneItem_BigBell</t>
   </si>
   <si>
+    <t>P_Item_SceneItem_BigBell</t>
+  </si>
+  <si>
     <t>铁砧</t>
   </si>
   <si>
@@ -179,6 +198,9 @@
     <t>Sprite_Item_SceneItem_Anvil</t>
   </si>
   <si>
+    <t>P_Item_SceneItem_Anvil</t>
+  </si>
+  <si>
     <t>充电站</t>
   </si>
   <si>
@@ -188,6 +210,9 @@
     <t>Sprite_Item_SceneItem_Charger</t>
   </si>
   <si>
+    <t>P_Item_SceneItem_Charger</t>
+  </si>
+  <si>
     <t>干枯藤蔓</t>
   </si>
   <si>
@@ -200,6 +225,9 @@
     <t>Sprite_Item_SceneItem_Vine</t>
   </si>
   <si>
+    <t>P_Item_SceneItem_Vine</t>
+  </si>
+  <si>
     <t>储物柜</t>
   </si>
   <si>
@@ -209,6 +237,9 @@
     <t>Sprite_Item_SceneItem_Locker</t>
   </si>
   <si>
+    <t>P_Item_SceneItem_Locker</t>
+  </si>
+  <si>
     <t>书</t>
   </si>
   <si>
@@ -221,6 +252,9 @@
     <t>Sprite_Item_SceneItem_Book</t>
   </si>
   <si>
+    <t>P_Item_SceneItem_Book</t>
+  </si>
+  <si>
     <t>尸骨堆</t>
   </si>
   <si>
@@ -230,6 +264,9 @@
     <t>Sprite_Item_SceneItem_SkeletonPile</t>
   </si>
   <si>
+    <t>P_Item_SceneItem_SkeletonPile</t>
+  </si>
+  <si>
     <t>火焰</t>
   </si>
   <si>
@@ -239,6 +276,9 @@
     <t>Sprite_Item_SceneItem_Fire</t>
   </si>
   <si>
+    <t>P_Item_SceneItem_Fire</t>
+  </si>
+  <si>
     <t>篮球筐</t>
   </si>
   <si>
@@ -248,56 +288,185 @@
     <t>Sprite_Item_SceneItem_Basket</t>
   </si>
   <si>
-    <t>P_Item_SceneItem_Sawdust</t>
-  </si>
-  <si>
-    <t>P_Item_SceneItem_BurningSawdust</t>
-  </si>
-  <si>
-    <t>P_Item_SceneItem_DeadVase</t>
-  </si>
-  <si>
-    <t>P_Item_SceneItem_BigBell</t>
-  </si>
-  <si>
-    <t>P_Item_SceneItem_Anvil</t>
-  </si>
-  <si>
-    <t>P_Item_SceneItem_Charger</t>
-  </si>
-  <si>
-    <t>P_Item_SceneItem_Vine</t>
-  </si>
-  <si>
-    <t>P_Item_SceneItem_Locker</t>
-  </si>
-  <si>
-    <t>P_Item_SceneItem_Book</t>
-  </si>
-  <si>
-    <t>P_Item_SceneItem_SkeletonPile</t>
-  </si>
-  <si>
-    <t>P_Item_SceneItem_Fire</t>
-  </si>
-  <si>
     <t>P_Item_SceneItem_Basket</t>
+  </si>
+  <si>
+    <t>手动开关（关）</t>
+  </si>
+  <si>
+    <t>手动开关（开）</t>
+  </si>
+  <si>
+    <t>光控开关</t>
+  </si>
+  <si>
+    <t>声控开关</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +479,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -319,13 +674,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,6 +930,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -357,6 +957,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -367,17 +976,61 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -627,70 +1280,70 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.1416666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.1416666666667" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="18" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9" style="3"/>
+    <col min="6" max="6" width="18" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.1416666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.2833333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.7083333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.28333333333333" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9" style="4"/>
     <col min="12" max="12" width="35" customWidth="1"/>
-    <col min="13" max="13" width="44.7109375" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="44.7083333333333" customWidth="1"/>
+    <col min="14" max="14" width="31.2833333333333" customWidth="1"/>
+    <col min="21" max="21" width="15.1416666666667" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="25" max="25" width="44.7109375" customWidth="1"/>
+    <col min="25" max="25" width="44.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="30">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:14">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="16" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -700,648 +1353,815 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:14">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="1" customFormat="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:14">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" ht="137.25" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="1" customFormat="1" ht="137.25" customHeight="1" spans="1:13">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
+    <row r="5" spans="1:25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
         <v>220001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>702001</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="5">
-        <v>802001</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="6"/>
+      <c r="F5" s="5">
         <v>900004</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="15" t="s">
         <v>34</v>
       </c>
       <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
+        <v>37</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="Y5" s="4"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5">
         <v>220002</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>702002</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="5">
-        <v>802002</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="M6" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4">
+        <v>43</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5">
         <v>220003</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>702003</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="5">
-        <v>802003</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="D7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="11" t="s">
-        <v>38</v>
+      <c r="H7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:29" s="2" customFormat="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6">
+        <v>48</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:29">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7">
         <v>220004</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>702004</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="7">
-        <v>802004</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7">
         <v>900005</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="13" t="s">
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="17" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O8" s="10"/>
-      <c r="Y8" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="Y8" s="11"/>
       <c r="AA8"/>
       <c r="AC8"/>
     </row>
-    <row r="9" spans="1:29" s="2" customFormat="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6">
+    <row r="9" s="2" customFormat="1" spans="1:29">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7">
         <v>220005</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>702005</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="7">
-        <v>802005</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7">
         <v>900006</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="13" t="s">
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="17" t="s">
         <v>34</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O9" s="10"/>
-      <c r="Y9" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="Y9" s="11"/>
       <c r="AA9"/>
       <c r="AC9"/>
     </row>
-    <row r="10" spans="1:29" s="2" customFormat="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6">
+    <row r="10" s="2" customFormat="1" spans="1:29">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7">
         <v>220006</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>702006</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="7">
-        <v>802006</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="D10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7">
         <v>900007</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="7">
         <v>10</v>
       </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="13" t="s">
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="17" t="s">
         <v>34</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="Y10" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="Y10" s="11"/>
       <c r="AA10"/>
       <c r="AC10"/>
     </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4">
+    <row r="11" spans="1:25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5">
         <v>220007</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>702007</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="5">
-        <v>802007</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="D11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="11" t="s">
+      <c r="H11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="15" t="s">
         <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" s="2" customFormat="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6">
+        <v>65</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:29">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7">
         <v>220008</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>702008</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="7">
-        <v>802008</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="D12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7">
         <v>900003</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="13" t="s">
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="17" t="s">
         <v>34</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" s="10"/>
-      <c r="Y12" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="Y12" s="11"/>
       <c r="AA12"/>
       <c r="AC12"/>
     </row>
-    <row r="13" spans="1:29" s="2" customFormat="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6">
+    <row r="13" s="2" customFormat="1" spans="1:29">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7">
         <v>220009</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>702009</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="7">
-        <v>802009</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="D13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7">
         <v>900008</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="13" t="s">
+      <c r="H13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="17" t="s">
         <v>34</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" s="10"/>
-      <c r="Y13" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="Y13" s="11"/>
       <c r="AA13"/>
       <c r="AC13"/>
     </row>
-    <row r="14" spans="1:29" s="2" customFormat="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6">
+    <row r="14" s="2" customFormat="1" spans="1:29">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7">
         <v>220010</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>702010</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="7">
-        <v>802010</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="D14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="7">
         <v>300</v>
       </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="13">
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="17">
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O14" s="10"/>
-      <c r="Y14" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="Y14" s="11"/>
       <c r="AA14"/>
       <c r="AC14"/>
     </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4">
+    <row r="15" spans="1:25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5">
         <v>220011</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>702011</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="5">
-        <v>802011</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="D15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="11" t="s">
-        <v>39</v>
+      <c r="H15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="L15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="N15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="2:29">
+      <c r="B16" s="7">
+        <v>220012</v>
+      </c>
+      <c r="C16" s="8">
+        <v>702012</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="11">
+        <v>900009</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:29" s="2" customFormat="1">
-      <c r="B16" s="6">
-        <v>220012</v>
-      </c>
-      <c r="C16" s="7">
-        <v>702012</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="7">
-        <v>802012</v>
-      </c>
-      <c r="F16" s="10">
-        <v>900009</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="10">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O16" s="10"/>
-      <c r="Y16" s="10"/>
+      <c r="O16" s="11"/>
+      <c r="Y16" s="11"/>
       <c r="AA16"/>
       <c r="AC16"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="2:11">
+      <c r="B17" s="12">
+        <v>220013</v>
+      </c>
+      <c r="C17" s="13">
+        <v>702013</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14">
+        <v>900010</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="2:11">
+      <c r="B18" s="12">
+        <v>220014</v>
+      </c>
+      <c r="C18" s="13">
+        <v>702014</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14">
+        <v>900011</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="2:11">
+      <c r="B19" s="12">
+        <v>220015</v>
+      </c>
+      <c r="C19" s="13">
+        <v>702015</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="2:11">
+      <c r="B20" s="12">
+        <v>220016</v>
+      </c>
+      <c r="C20" s="13">
+        <v>702016</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14">
+        <v>900012</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="2:11">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="2:11">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="2:11">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="2:11">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="2:11">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="2:11">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="2:11">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="6:11">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Project\Project-A\AAA-Luban-Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E314173-0577-447C-A9F6-DDDAF49E6C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAC868A-4860-45AA-8FCC-D6D6EC0063B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="1230" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-80" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="110">
   <si>
     <t>##var</t>
   </si>
@@ -298,12 +287,6 @@
     <t>手动开关（开）</t>
   </si>
   <si>
-    <t>光控开关</t>
-  </si>
-  <si>
-    <t>声控开关</t>
-  </si>
-  <si>
     <t>Icon_Item_SceneItem_HandleOff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,14 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_SwitchLight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_SwitchSound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P_Item_SceneItem_HandleOff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,14 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P_Item_SceneItem_SwitchLight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_Item_SceneItem_SwitchSound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_Basket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,11 +315,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite_Item_SceneItem_SwitchLight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite_Item_SceneItem_SwitchSound</t>
+    <t>光控开关（关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Item_SceneItem_SwitchLightOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_SwitchLightOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_SwitchLightOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Item_SceneItem_SwitchLightOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_SwitchLightOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_SwitchLightOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Item_SceneItem_SwitchSoundOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_SwitchSoundOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_SwitchSoundOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声控开关（关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声控开关（开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Item_SceneItem_SwitchSoundOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Item_SceneItem_SwitchSoundOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_SwitchSoundOn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,6 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,32 +751,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.1328125" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="18" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.1328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.73046875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.26953125" style="3" customWidth="1"/>
     <col min="11" max="11" width="9" style="3"/>
-    <col min="12" max="12" width="35" customWidth="1"/>
-    <col min="13" max="13" width="44.73046875" style="14" customWidth="1"/>
-    <col min="14" max="14" width="31.265625" customWidth="1"/>
-    <col min="21" max="21" width="15.1328125" customWidth="1"/>
+    <col min="12" max="12" width="45.26953125" customWidth="1"/>
+    <col min="13" max="13" width="44.7265625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="38.26953125" customWidth="1"/>
+    <col min="21" max="21" width="15.08984375" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="25" max="25" width="44.73046875" customWidth="1"/>
+    <col min="25" max="25" width="44.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -796,7 +818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -838,7 +860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -880,7 +902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -919,7 +941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>220001</v>
@@ -959,7 +981,7 @@
       <c r="O5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>220002</v>
@@ -999,7 +1021,7 @@
       <c r="O6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>220003</v>
@@ -1039,7 +1061,7 @@
       <c r="O7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>220004</v>
@@ -1081,7 +1103,7 @@
       <c r="AA8"/>
       <c r="AC8"/>
     </row>
-    <row r="9" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>220005</v>
@@ -1123,7 +1145,7 @@
       <c r="AA9"/>
       <c r="AC9"/>
     </row>
-    <row r="10" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>220006</v>
@@ -1165,7 +1187,7 @@
       <c r="AA10"/>
       <c r="AC10"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>220007</v>
@@ -1205,7 +1227,7 @@
       <c r="O11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>220008</v>
@@ -1247,7 +1269,7 @@
       <c r="AA12"/>
       <c r="AC12"/>
     </row>
-    <row r="13" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>220009</v>
@@ -1289,7 +1311,7 @@
       <c r="AA13"/>
       <c r="AC13"/>
     </row>
-    <row r="14" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>220010</v>
@@ -1331,7 +1353,7 @@
       <c r="AA14"/>
       <c r="AC14"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>220011</v>
@@ -1371,7 +1393,7 @@
       <c r="O15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>220012</v>
       </c>
@@ -1402,7 +1424,7 @@
         <v>84</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>85</v>
@@ -1412,7 +1434,7 @@
       <c r="AA16"/>
       <c r="AC16"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>220013</v>
       </c>
@@ -1439,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="L17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="M17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>220014</v>
       </c>
@@ -1475,24 +1497,24 @@
         <v>0</v>
       </c>
       <c r="L18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>220015</v>
       </c>
       <c r="C19" s="4">
         <v>702015</v>
       </c>
-      <c r="D19" t="s">
-        <v>88</v>
+      <c r="D19" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3">
@@ -1511,78 +1533,146 @@
         <v>0</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>220016</v>
       </c>
       <c r="C20" s="4">
         <v>702016</v>
       </c>
-      <c r="D20" t="s">
-        <v>89</v>
+      <c r="D20" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>220017</v>
+      </c>
+      <c r="C21" s="4">
+        <v>702017</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3">
         <v>900012</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" s="16" t="s">
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="N20" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>220018</v>
+      </c>
+      <c r="C22" s="4">
+        <v>702018</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3">
+        <v>900012</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Project-A\AAA-Luban-Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAC868A-4860-45AA-8FCC-D6D6EC0063B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C905EC43-42E1-4B0C-AF1A-1DF4E9BA714E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-80" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3420" yWindow="1260" windowWidth="27975" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="109">
   <si>
     <t>##var</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>DESCRIBE</t>
-  </si>
-  <si>
-    <t>interactEffectID</t>
   </si>
   <si>
     <t>isDestructible</t>
@@ -379,17 +376,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -397,13 +394,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +410,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,12 +451,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,6 +480,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,30 +759,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="18" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18" style="18" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="9" style="3"/>
-    <col min="12" max="12" width="45.26953125" customWidth="1"/>
-    <col min="13" max="13" width="44.7265625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="38.26953125" customWidth="1"/>
-    <col min="21" max="21" width="15.08984375" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" customWidth="1"/>
+    <col min="13" max="13" width="44.7109375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="38.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="25" max="25" width="44.7265625" customWidth="1"/>
+    <col min="25" max="25" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="30">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -790,158 +796,152 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:29" s="1" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="1" customFormat="1">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="1" customFormat="1" ht="137.25" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>220001</v>
@@ -950,38 +950,38 @@
         <v>702001</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="16">
+        <v>900004</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>900004</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="9" t="s">
+      <c r="L5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="N5" t="s">
         <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
       </c>
       <c r="O5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>220002</v>
@@ -990,38 +990,38 @@
         <v>702002</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="N6" t="s">
         <v>42</v>
-      </c>
-      <c r="N6" t="s">
-        <v>43</v>
       </c>
       <c r="O6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>220003</v>
@@ -1030,38 +1030,38 @@
         <v>702003</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="N7" t="s">
         <v>47</v>
-      </c>
-      <c r="N7" t="s">
-        <v>48</v>
       </c>
       <c r="O7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="2" customFormat="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>220004</v>
@@ -1070,40 +1070,40 @@
         <v>702004</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="16">
+        <v>900005</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
-        <v>900005</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="N8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="8"/>
-      <c r="Y8" s="8"/>
+      <c r="O8" s="6"/>
+      <c r="Y8" s="6"/>
       <c r="AA8"/>
       <c r="AC8"/>
     </row>
-    <row r="9" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="2" customFormat="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>220005</v>
@@ -1112,40 +1112,40 @@
         <v>702005</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="16">
+        <v>900006</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
-        <v>900006</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="N9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="8"/>
-      <c r="Y9" s="8"/>
+      <c r="O9" s="6"/>
+      <c r="Y9" s="6"/>
       <c r="AA9"/>
       <c r="AC9"/>
     </row>
-    <row r="10" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="2" customFormat="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>220006</v>
@@ -1154,14 +1154,14 @@
         <v>702006</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="F10" s="16">
         <v>900007</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="5">
         <v>10</v>
@@ -1170,24 +1170,24 @@
         <v>0</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="10" t="s">
-        <v>34</v>
+      <c r="K10" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="N10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="8"/>
-      <c r="Y10" s="8"/>
+      <c r="O10" s="6"/>
+      <c r="Y10" s="6"/>
       <c r="AA10"/>
       <c r="AC10"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>220007</v>
@@ -1196,38 +1196,38 @@
         <v>702007</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="M11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="N11" t="s">
         <v>64</v>
-      </c>
-      <c r="N11" t="s">
-        <v>65</v>
       </c>
       <c r="O11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="2" customFormat="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>220008</v>
@@ -1236,40 +1236,40 @@
         <v>702008</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="16">
+        <v>900003</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
-        <v>900003</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="N12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" s="8"/>
-      <c r="Y12" s="8"/>
+      <c r="O12" s="6"/>
+      <c r="Y12" s="6"/>
       <c r="AA12"/>
       <c r="AC12"/>
     </row>
-    <row r="13" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="2" customFormat="1">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>220009</v>
@@ -1278,40 +1278,40 @@
         <v>702009</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="16">
+        <v>900008</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
-        <v>900008</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="N13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="8"/>
-      <c r="Y13" s="8"/>
+      <c r="O13" s="6"/>
+      <c r="Y13" s="6"/>
       <c r="AA13"/>
       <c r="AC13"/>
     </row>
-    <row r="14" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="2" customFormat="1">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>220010</v>
@@ -1320,11 +1320,11 @@
         <v>702010</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="7" t="s">
-        <v>62</v>
+      <c r="F14" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -1336,24 +1336,24 @@
         <v>0</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="10">
+      <c r="K14" s="8">
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="N14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c r="Y14" s="8"/>
+      <c r="O14" s="6"/>
+      <c r="Y14" s="6"/>
       <c r="AA14"/>
       <c r="AC14"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>220011</v>
@@ -1362,38 +1362,38 @@
         <v>702011</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="M15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="N15" t="s">
         <v>81</v>
-      </c>
-      <c r="N15" t="s">
-        <v>82</v>
       </c>
       <c r="O15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="2" customFormat="1">
       <c r="B16" s="5">
         <v>220012</v>
       </c>
@@ -1401,40 +1401,40 @@
         <v>702012</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="18">
+        <v>900009</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="8">
-        <v>900009</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" s="8"/>
-      <c r="Y16" s="8"/>
+      <c r="O16" s="6"/>
+      <c r="Y16" s="6"/>
       <c r="AA16"/>
       <c r="AC16"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14">
       <c r="B17" s="4">
         <v>220013</v>
       </c>
@@ -1442,10 +1442,10 @@
         <v>702013</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="3">
+      <c r="F17" s="18">
         <v>900010</v>
       </c>
       <c r="G17" s="3">
@@ -1460,17 +1460,17 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="4">
         <v>220014</v>
       </c>
@@ -1478,10 +1478,10 @@
         <v>702014</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="3">
+      <c r="F18" s="18">
         <v>900011</v>
       </c>
       <c r="G18" s="3">
@@ -1496,64 +1496,64 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="4">
         <v>220015</v>
       </c>
       <c r="C19" s="4">
         <v>702015</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11" t="s">
+      <c r="M19" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="N19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N19" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20" s="4">
         <v>220016</v>
       </c>
       <c r="C20" s="4">
         <v>702016</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>95</v>
+      <c r="D20" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="3">
+      <c r="F20" s="18">
         <v>0</v>
       </c>
       <c r="G20" s="3">
@@ -1568,28 +1568,28 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="N20" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="N20" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:14">
       <c r="B21" s="4">
         <v>220017</v>
       </c>
       <c r="C21" s="4">
         <v>702017</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>105</v>
+      <c r="D21" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="3">
+      <c r="F21" s="18">
         <v>900012</v>
       </c>
       <c r="G21" s="3">
@@ -1604,73 +1604,73 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="N21" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22" s="4">
         <v>220018</v>
       </c>
       <c r="C22" s="4">
         <v>702018</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="18">
+        <v>900012</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3">
-        <v>900012</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="11" t="s">
+      <c r="M22" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="N22" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="N22" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:14">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>

--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C905EC43-42E1-4B0C-AF1A-1DF4E9BA714E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7FB433-CDA0-468A-823A-28A54004F228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3420" yWindow="1260" windowWidth="27975" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
   <si>
     <t>##var</t>
   </si>
@@ -272,12 +272,6 @@
     <t>篮球筐</t>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_Basket</t>
-  </si>
-  <si>
-    <t>P_Item_SceneItem_Basket</t>
-  </si>
-  <si>
     <t>手动开关（关）</t>
   </si>
   <si>
@@ -300,10 +294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite_Item_SceneItem_Basket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_HandleOff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,6 +360,9 @@
   <si>
     <t>P_Item_SceneItem_SwitchSoundOn</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_BasketballHoop</t>
   </si>
 </sst>
 </file>
@@ -759,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1420,14 +1413,9 @@
       <c r="K16" s="6">
         <v>0</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="M16" s="14"/>
       <c r="N16" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="O16" s="6"/>
       <c r="Y16" s="6"/>
@@ -1442,7 +1430,7 @@
         <v>702013</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="18">
@@ -1461,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="L17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -1478,7 +1466,7 @@
         <v>702014</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="18">
@@ -1497,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:14">
@@ -1514,7 +1502,7 @@
         <v>702015</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="18">
@@ -1533,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:14">
@@ -1550,7 +1538,7 @@
         <v>702016</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="18">
@@ -1569,13 +1557,13 @@
         <v>0</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -1586,7 +1574,7 @@
         <v>702017</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="18">
@@ -1605,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:14">
@@ -1622,7 +1610,7 @@
         <v>702018</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="18">
@@ -1641,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="2:14">

--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7FB433-CDA0-468A-823A-28A54004F228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAA2285-1851-400C-8FFB-977C33CE46C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -125,9 +125,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_Sawdust</t>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_Sawdust</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_BurningSawdust</t>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_BurningSawdust</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_DeadVase</t>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_DeadVase</t>
   </si>
   <si>
@@ -170,9 +161,6 @@
     <t>座钟</t>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_BigBell</t>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_BigBell</t>
   </si>
   <si>
@@ -182,9 +170,6 @@
     <t>铁砧</t>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_Anvil</t>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_Anvil</t>
   </si>
   <si>
@@ -194,9 +179,6 @@
     <t>充电站</t>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_Charger</t>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_Charger</t>
   </si>
   <si>
@@ -209,9 +191,6 @@
     <t>900004</t>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_Vine</t>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_Vine</t>
   </si>
   <si>
@@ -221,9 +200,6 @@
     <t>储物柜</t>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_Locker</t>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_Locker</t>
   </si>
   <si>
@@ -236,9 +212,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_Book</t>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_Book</t>
   </si>
   <si>
@@ -248,9 +221,6 @@
     <t>尸骨堆</t>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_SkeletonPile</t>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_SkeletonPile</t>
   </si>
   <si>
@@ -260,9 +230,6 @@
     <t>火焰</t>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_Fire</t>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_Fire</t>
   </si>
   <si>
@@ -276,14 +243,6 @@
   </si>
   <si>
     <t>手动开关（开）</t>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_HandleOff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_HandleOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P_Item_SceneItem_HandleOff</t>
@@ -306,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_SwitchLightOff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_SwitchLightOff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_SwitchLightOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_SwitchLightOn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_Item_SceneItem_SwitchSoundOff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_SwitchSoundOff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,10 +294,6 @@
   </si>
   <si>
     <t>声控开关（开）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_Item_SceneItem_SwitchSoundOn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -753,7 +696,7 @@
   <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -962,14 +905,11 @@
       <c r="K5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="N5" t="s">
         <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>36</v>
       </c>
       <c r="O5" s="3"/>
       <c r="Y5" s="3"/>
@@ -983,7 +923,7 @@
         <v>702002</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="16">
@@ -993,23 +933,20 @@
         <v>33</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>40</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
       </c>
       <c r="O6" s="3"/>
       <c r="Y6" s="3"/>
@@ -1023,7 +960,7 @@
         <v>702003</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="16">
@@ -1033,23 +970,20 @@
         <v>32</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O7" s="3"/>
       <c r="Y7" s="3"/>
@@ -1063,7 +997,7 @@
         <v>702004</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="16">
@@ -1082,14 +1016,11 @@
       <c r="K8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="M8" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O8" s="6"/>
       <c r="Y8" s="6"/>
@@ -1105,7 +1036,7 @@
         <v>702005</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="16">
@@ -1124,14 +1055,11 @@
       <c r="K9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="M9" s="13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O9" s="6"/>
       <c r="Y9" s="6"/>
@@ -1147,7 +1075,7 @@
         <v>702006</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="16">
@@ -1166,14 +1094,11 @@
       <c r="K10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="M10" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="O10" s="6"/>
       <c r="Y10" s="6"/>
@@ -1189,17 +1114,17 @@
         <v>702007</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -1208,14 +1133,11 @@
       <c r="K11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L11" t="s">
-        <v>62</v>
-      </c>
       <c r="M11" s="12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O11" s="3"/>
       <c r="Y11" s="3"/>
@@ -1229,7 +1151,7 @@
         <v>702008</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="16">
@@ -1248,14 +1170,11 @@
       <c r="K12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="M12" s="13" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O12" s="6"/>
       <c r="Y12" s="6"/>
@@ -1271,7 +1190,7 @@
         <v>702009</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="16">
@@ -1281,7 +1200,7 @@
         <v>33</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
@@ -1290,14 +1209,11 @@
       <c r="K13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="M13" s="13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="O13" s="6"/>
       <c r="Y13" s="6"/>
@@ -1313,11 +1229,11 @@
         <v>702010</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -1332,14 +1248,11 @@
       <c r="K14" s="8">
         <v>0</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="M14" s="13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O14" s="6"/>
       <c r="Y14" s="6"/>
@@ -1355,7 +1268,7 @@
         <v>702011</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="16">
@@ -1365,23 +1278,20 @@
         <v>33</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="N15" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="O15" s="3"/>
       <c r="Y15" s="3"/>
@@ -1394,7 +1304,7 @@
         <v>702012</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="18">
@@ -1415,7 +1325,7 @@
       </c>
       <c r="M16" s="14"/>
       <c r="N16" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="O16" s="6"/>
       <c r="Y16" s="6"/>
@@ -1430,7 +1340,7 @@
         <v>702013</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="18">
@@ -1448,14 +1358,12 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="L17" s="9"/>
       <c r="M17" s="14" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -1466,7 +1374,7 @@
         <v>702014</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="18">
@@ -1484,14 +1392,12 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>86</v>
-      </c>
+      <c r="L18" s="9"/>
       <c r="M18" s="14" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:14">
@@ -1502,7 +1408,7 @@
         <v>702015</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="18">
@@ -1520,14 +1426,12 @@
       <c r="K19" s="3">
         <v>0</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="L19" s="9"/>
       <c r="M19" s="14" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:14">
@@ -1538,7 +1442,7 @@
         <v>702016</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="18">
@@ -1556,14 +1460,12 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="L20" s="9"/>
       <c r="M20" s="14" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -1574,7 +1476,7 @@
         <v>702017</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="18">
@@ -1592,14 +1494,12 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>98</v>
-      </c>
+      <c r="L21" s="9"/>
       <c r="M21" s="14" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:14">
@@ -1610,7 +1510,7 @@
         <v>702018</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="18">
@@ -1628,14 +1528,12 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="L22" s="9"/>
       <c r="M22" s="14" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:14">

--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAA2285-1851-400C-8FFB-977C33CE46C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1AF963-F0D0-4469-9813-B43ECA1474E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="1185" windowWidth="21450" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>attack</t>
-  </si>
-  <si>
-    <t>IconName</t>
   </si>
   <si>
     <t>SpriteName</t>
@@ -110,9 +107,6 @@
     <t>注意，更详细的功能效果并未配进该表中</t>
   </si>
   <si>
-    <t>图标</t>
-  </si>
-  <si>
     <t>图片渲染</t>
   </si>
   <si>
@@ -240,27 +234,16 @@
   </si>
   <si>
     <t>手动开关（关）</t>
-  </si>
-  <si>
-    <t>手动开关（开）</t>
   </si>
   <si>
     <t>P_Item_SceneItem_HandleOff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P_Item_SceneItem_HandleOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_HandleOff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite_Item_SceneItem_HandleOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>光控开关（关）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,18 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P_Item_SceneItem_SwitchLightOff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite_Item_SceneItem_SwitchLightOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_Item_SceneItem_SwitchLightOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite_Item_SceneItem_SwitchSoundOff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,19 +264,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>声控开关（开）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite_Item_SceneItem_SwitchSoundOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_Item_SceneItem_SwitchSoundOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P_Item_SceneItem_BasketballHoop</t>
+  </si>
+  <si>
+    <t>P_Item_SceneItem_SwitchLightOff</t>
   </si>
 </sst>
 </file>
@@ -693,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -710,15 +672,14 @@
     <col min="9" max="9" width="11.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="9" style="3"/>
-    <col min="12" max="12" width="45.28515625" customWidth="1"/>
-    <col min="13" max="13" width="44.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="38.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" customWidth="1"/>
-    <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="25" max="25" width="44.7109375" customWidth="1"/>
+    <col min="12" max="12" width="44.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="38.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="24" max="24" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="30">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -748,136 +709,124 @@
       <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" s="1" customFormat="1">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="1" customFormat="1">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="137.25" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" ht="137.25" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>220001</v>
@@ -886,35 +835,35 @@
         <v>702001</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="16">
         <v>900004</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="N5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>220002</v>
@@ -923,35 +872,35 @@
         <v>702002</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="16">
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="N6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>220003</v>
@@ -960,35 +909,35 @@
         <v>702003</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="16">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:29" s="2" customFormat="1">
+        <v>35</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:28" s="2" customFormat="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>220004</v>
@@ -997,37 +946,37 @@
         <v>702004</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="16">
         <v>900005</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="AA8"/>
-      <c r="AC8"/>
-    </row>
-    <row r="9" spans="1:29" s="2" customFormat="1">
+        <v>31</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Z8"/>
+      <c r="AB8"/>
+    </row>
+    <row r="9" spans="1:28" s="2" customFormat="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>220005</v>
@@ -1036,37 +985,37 @@
         <v>702005</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="16">
         <v>900006</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="AA9"/>
-      <c r="AC9"/>
-    </row>
-    <row r="10" spans="1:29" s="2" customFormat="1">
+        <v>31</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Z9"/>
+      <c r="AB9"/>
+    </row>
+    <row r="10" spans="1:28" s="2" customFormat="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>220006</v>
@@ -1075,14 +1024,14 @@
         <v>702006</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="16">
         <v>900007</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="5">
         <v>10</v>
@@ -1092,20 +1041,20 @@
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="AA10"/>
-      <c r="AC10"/>
-    </row>
-    <row r="11" spans="1:29">
+        <v>31</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Z10"/>
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>220007</v>
@@ -1114,35 +1063,35 @@
         <v>702007</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" s="2" customFormat="1">
+        <v>31</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" s="2" customFormat="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>220008</v>
@@ -1151,37 +1100,37 @@
         <v>702008</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="16">
         <v>900003</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="AA12"/>
-      <c r="AC12"/>
-    </row>
-    <row r="13" spans="1:29" s="2" customFormat="1">
+        <v>31</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Z12"/>
+      <c r="AB12"/>
+    </row>
+    <row r="13" spans="1:28" s="2" customFormat="1">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>220009</v>
@@ -1190,37 +1139,37 @@
         <v>702009</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="16">
         <v>900008</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="AA13"/>
-      <c r="AC13"/>
-    </row>
-    <row r="14" spans="1:29" s="2" customFormat="1">
+        <v>31</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Z13"/>
+      <c r="AB13"/>
+    </row>
+    <row r="14" spans="1:28" s="2" customFormat="1">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>220010</v>
@@ -1229,11 +1178,11 @@
         <v>702010</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -1248,18 +1197,18 @@
       <c r="K14" s="8">
         <v>0</v>
       </c>
-      <c r="M14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="AA14"/>
-      <c r="AC14"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="L14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Z14"/>
+      <c r="AB14"/>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>220011</v>
@@ -1268,35 +1217,35 @@
         <v>702011</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="16">
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:29" s="2" customFormat="1">
+        <v>36</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:28" s="2" customFormat="1">
       <c r="B16" s="5">
         <v>220012</v>
       </c>
@@ -1304,7 +1253,7 @@
         <v>702012</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="18">
@@ -1323,16 +1272,16 @@
       <c r="K16" s="6">
         <v>0</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="AA16"/>
-      <c r="AC16"/>
-    </row>
-    <row r="17" spans="2:14">
+      <c r="L16" s="14"/>
+      <c r="M16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Z16"/>
+      <c r="AB16"/>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" s="4">
         <v>220013</v>
       </c>
@@ -1340,7 +1289,7 @@
         <v>702013</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="18">
@@ -1358,27 +1307,26 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
+      <c r="L17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" s="4">
         <v>220014</v>
       </c>
       <c r="C18" s="4">
         <v>702014</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="15" t="s">
         <v>73</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="18">
-        <v>900011</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1392,15 +1340,14 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
+      <c r="L18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="4">
         <v>220015</v>
       </c>
@@ -1408,11 +1355,11 @@
         <v>702015</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="18">
-        <v>0</v>
+        <v>900012</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -1426,139 +1373,44 @@
       <c r="K19" s="3">
         <v>0</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="4">
-        <v>220016</v>
-      </c>
-      <c r="C20" s="4">
-        <v>702016</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>78</v>
-      </c>
+      <c r="L19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="4">
-        <v>220017</v>
-      </c>
-      <c r="C21" s="4">
-        <v>702017</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="18">
-        <v>900012</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="4">
-        <v>220018</v>
-      </c>
-      <c r="C22" s="4">
-        <v>702018</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="18">
-        <v>900012</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
+      <c r="L20" s="14"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:13">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:13">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:13">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1AF963-F0D0-4469-9813-B43ECA1474E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FD4B9A-DF82-4F5D-A3A1-F7344723D41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1185" windowWidth="21450" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>##var</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>P_Item_SceneItem_SwitchLightOff</t>
+  </si>
+  <si>
+    <t>被盖住的声控开关</t>
   </si>
 </sst>
 </file>
@@ -657,14 +660,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="18" style="18" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="3" customWidth="1"/>
@@ -1381,10 +1384,25 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="15"/>
+      <c r="B20" s="4">
+        <v>220016</v>
+      </c>
+      <c r="C20" s="4">
+        <v>702016</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="E20" s="4"/>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
       <c r="L20" s="14"/>
       <c r="M20" s="9"/>
     </row>

--- a/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_SceneObjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FD4B9A-DF82-4F5D-A3A1-F7344723D41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1A0698-5B07-4204-896C-7F4A41A676D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="2055" windowWidth="21450" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>##var</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>被盖住的声控开关</t>
+  </si>
+  <si>
+    <t>地洞</t>
   </si>
 </sst>
 </file>
@@ -660,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1407,8 +1410,24 @@
       <c r="M20" s="9"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="4">
+        <v>220017</v>
+      </c>
+      <c r="C21" s="4">
+        <v>702017</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="4"/>
